--- a/datastatic/datasets/online/SDG7_Energy_consumption_per_capita_World_Bank_2014.xlsx
+++ b/datastatic/datasets/online/SDG7_Energy_consumption_per_capita_World_Bank_2014.xlsx
@@ -855,7 +855,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG7_Energy_consumption_per_capita_World_Bank_2014.xlsx
+++ b/datastatic/datasets/online/SDG7_Energy_consumption_per_capita_World_Bank_2014.xlsx
@@ -855,7 +855,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG7_Energy_consumption_per_capita_World_Bank_2014.xlsx
+++ b/datastatic/datasets/online/SDG7_Energy_consumption_per_capita_World_Bank_2014.xlsx
@@ -3495,7 +3495,9 @@
       <c r="A212" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B212" s="16"/>
+      <c r="B212" s="14">
+        <v>2655.850165</v>
+      </c>
       <c r="C212" s="15">
         <v>2655.850165</v>
       </c>
